--- a/data/exp_raw/johann_batch_preprocessed_part2.xlsx
+++ b/data/exp_raw/johann_batch_preprocessed_part2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcant\Documents\AmmerBatch\data\exp_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcantarella/Documents/AmmerBatch/data/exp_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC7F50A-BD79-4845-BD81-D8A480C4FCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="735" windowWidth="29400" windowHeight="16680" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="DOC (mg L)" sheetId="2" r:id="rId4"/>
     <sheet name="SO4 (mg L)" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,17 +126,17 @@
     <t>B16</t>
   </si>
   <si>
-    <t>P9</t>
+    <t>T9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,7 +186,7 @@
       <name val="Aptos Narrow"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +197,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -350,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -454,10 +461,20 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -734,20 +751,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -767,7 +784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>12</v>
       </c>
@@ -782,10 +799,10 @@
         <v>1.3</v>
       </c>
       <c r="F2" s="18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
+        <v>15.339999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
@@ -800,10 +817,10 @@
         <v>0.65</v>
       </c>
       <c r="F3" s="18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75">
+        <v>17.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
@@ -818,10 +835,10 @@
         <v>2.9</v>
       </c>
       <c r="F4" s="18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>15</v>
       </c>
@@ -836,10 +853,10 @@
         <v>2.06</v>
       </c>
       <c r="F5" s="18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75">
+        <v>23.41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>16</v>
       </c>
@@ -854,10 +871,10 @@
         <v>40.1</v>
       </c>
       <c r="F6" s="18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>17</v>
       </c>
@@ -872,46 +889,46 @@
         <v>24.6</v>
       </c>
       <c r="F7" s="18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="A8" s="19" t="s">
+        <v>7.3699999999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2">
+      <c r="B8" s="38"/>
+      <c r="C8" s="39">
         <v>24</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="39">
         <v>0.89</v>
       </c>
-      <c r="F8" s="18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75">
-      <c r="A9" s="19" t="s">
+      <c r="F8" s="40">
+        <v>3.0100000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39">
         <v>3</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="39">
         <v>0.53</v>
       </c>
-      <c r="F9" s="18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75">
+      <c r="F9" s="40">
+        <v>3.6100000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>20</v>
       </c>
@@ -926,10 +943,10 @@
         <v>3.49</v>
       </c>
       <c r="F10" s="18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
+        <v>15.540000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>21</v>
       </c>
@@ -944,28 +961,28 @@
         <v>29.5</v>
       </c>
       <c r="F11" s="18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75">
-      <c r="A12" s="19" t="s">
+        <v>17.87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39">
         <v>1</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="39">
         <v>0.45</v>
       </c>
-      <c r="F12" s="18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
+      <c r="F12" s="40">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>23</v>
       </c>
@@ -980,10 +997,10 @@
         <v>19.600000000000001</v>
       </c>
       <c r="F13" s="18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75">
+        <v>7.4300000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>24</v>
       </c>
@@ -998,10 +1015,10 @@
         <v>20.100000000000001</v>
       </c>
       <c r="F14" s="18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>25</v>
       </c>
@@ -1016,10 +1033,10 @@
         <v>30.8</v>
       </c>
       <c r="F15" s="18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>26</v>
       </c>
@@ -1034,10 +1051,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="F16" s="18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75">
+        <v>6.4999999999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>27</v>
       </c>
@@ -1051,11 +1068,11 @@
       <c r="E17" s="2">
         <v>25.4</v>
       </c>
-      <c r="F17" s="18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75">
+      <c r="F17">
+        <v>4.7800000000000011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -1063,7 +1080,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -1071,7 +1088,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="18"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -1079,7 +1096,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -1087,7 +1104,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -1095,7 +1112,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -1103,7 +1120,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75">
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -1111,7 +1128,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="18"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75">
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -1125,21 +1142,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
         <v>0</v>
       </c>
@@ -1155,12 +1172,12 @@
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>9</v>
       </c>
@@ -1177,7 +1194,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="21"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>16</v>
       </c>
@@ -1194,7 +1211,7 @@
       <c r="W5" s="21"/>
       <c r="X5" s="21"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>23</v>
       </c>
@@ -1211,7 +1228,7 @@
       <c r="W6" s="21"/>
       <c r="X6" s="21"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>30</v>
       </c>
@@ -1228,7 +1245,7 @@
       <c r="W7" s="21"/>
       <c r="X7" s="21"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>56</v>
       </c>
@@ -1245,7 +1262,7 @@
       <c r="W8" s="21"/>
       <c r="X8" s="21"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>72</v>
       </c>
@@ -1262,7 +1279,7 @@
       <c r="W9" s="21"/>
       <c r="X9" s="21"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>83</v>
       </c>
@@ -1279,7 +1296,7 @@
       <c r="W10" s="21"/>
       <c r="X10" s="21"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>99</v>
       </c>
@@ -1296,7 +1313,7 @@
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>126</v>
       </c>
@@ -1313,7 +1330,7 @@
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>150</v>
       </c>
@@ -1330,7 +1347,7 @@
       <c r="W13" s="21"/>
       <c r="X13" s="21"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
@@ -1344,7 +1361,7 @@
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
@@ -1364,16 +1381,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
@@ -1427,7 +1444,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75">
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
@@ -1482,7 +1499,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75">
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
@@ -1537,7 +1554,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75">
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
@@ -1589,7 +1606,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75">
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>16</v>
       </c>
@@ -1641,7 +1658,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
@@ -1696,7 +1713,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75">
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>18</v>
       </c>
@@ -1751,7 +1768,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75">
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>19</v>
       </c>
@@ -1806,7 +1823,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75">
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
@@ -1861,7 +1878,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75">
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>21</v>
       </c>
@@ -1916,7 +1933,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>22</v>
       </c>
@@ -1971,7 +1988,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>23</v>
       </c>
@@ -2026,7 +2043,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75">
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>24</v>
       </c>
@@ -2081,7 +2098,7 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75">
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>25</v>
       </c>
@@ -2136,7 +2153,7 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>26</v>
       </c>
@@ -2191,7 +2208,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75">
+    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>27</v>
       </c>
@@ -2245,7 +2262,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75">
+    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -2262,7 +2279,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75">
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -2279,7 +2296,7 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75">
+    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -2296,7 +2313,7 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75">
+    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -2313,7 +2330,7 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75">
+    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -2330,7 +2347,7 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75">
+    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
@@ -2347,7 +2364,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75">
+    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
@@ -2364,7 +2381,7 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75">
+    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
@@ -2387,16 +2404,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" thickBot="1">
+    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
@@ -2431,7 +2448,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75">
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
@@ -2466,7 +2483,7 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75">
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
@@ -2501,7 +2518,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75">
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
@@ -2536,7 +2553,7 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75">
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>16</v>
       </c>
@@ -2571,7 +2588,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:15" ht="16.5" thickBot="1">
+    <row r="6" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
@@ -2606,7 +2623,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75">
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>18</v>
       </c>
@@ -2641,7 +2658,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:15" ht="16.5" thickBot="1">
+    <row r="8" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>19</v>
       </c>
@@ -2676,7 +2693,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75">
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
@@ -2711,7 +2728,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:15" ht="16.5" thickBot="1">
+    <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>21</v>
       </c>
@@ -2746,7 +2763,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>22</v>
       </c>
@@ -2781,7 +2798,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>23</v>
       </c>
@@ -2816,7 +2833,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:15" ht="16.5" thickBot="1">
+    <row r="13" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>24</v>
       </c>
@@ -2851,7 +2868,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:15" ht="16.5" thickBot="1">
+    <row r="14" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>25</v>
       </c>
@@ -2886,7 +2903,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>26</v>
       </c>
@@ -2921,7 +2938,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75">
+    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>27</v>
       </c>
@@ -2956,7 +2973,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75">
+    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2973,7 +2990,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75">
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2990,7 +3007,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75">
+    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -3007,7 +3024,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75">
+    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3024,7 +3041,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75">
+    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3041,7 +3058,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75">
+    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -3058,7 +3075,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75">
+    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3075,7 +3092,7 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75">
+    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -3098,16 +3115,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
@@ -3162,7 +3179,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75">
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
@@ -3217,7 +3234,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75">
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
@@ -3272,7 +3289,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75">
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
@@ -3324,7 +3341,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75">
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>16</v>
       </c>
@@ -3376,7 +3393,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
@@ -3431,7 +3448,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75">
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>18</v>
       </c>
@@ -3486,7 +3503,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75">
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>19</v>
       </c>
@@ -3541,7 +3558,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75">
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
@@ -3596,7 +3613,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75">
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>21</v>
       </c>
@@ -3651,7 +3668,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>22</v>
       </c>
@@ -3706,7 +3723,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>23</v>
       </c>
@@ -3761,7 +3778,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75">
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>24</v>
       </c>
@@ -3816,7 +3833,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75">
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>25</v>
       </c>
@@ -3871,7 +3888,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>26</v>
       </c>
@@ -3926,7 +3943,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75">
+    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>27</v>
       </c>
@@ -3981,7 +3998,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75">
+    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="12"/>
       <c r="C17" s="14"/>
@@ -3998,7 +4015,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75">
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="12"/>
       <c r="C18" s="14"/>
@@ -4015,7 +4032,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75">
+    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="12"/>
       <c r="C19" s="14"/>
@@ -4032,7 +4049,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75">
+    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
@@ -4049,7 +4066,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75">
+    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="6"/>
       <c r="C21" s="14"/>
@@ -4066,7 +4083,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75">
+    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="12"/>
       <c r="C22" s="14"/>
@@ -4083,7 +4100,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75">
+    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="6"/>
       <c r="C23" s="14"/>
@@ -4100,7 +4117,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75">
+    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="6"/>
       <c r="C24" s="13"/>

--- a/data/exp_raw/johann_batch_preprocessed_part2.xlsx
+++ b/data/exp_raw/johann_batch_preprocessed_part2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcantarella/Documents/AmmerBatch/data/exp_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC7F50A-BD79-4845-BD81-D8A480C4FCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C9B19F-62EE-6E4E-B33D-595419540CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9520" yWindow="1180" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -357,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -470,6 +470,9 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -755,7 +758,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -795,9 +798,7 @@
       <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2">
-        <v>1.3</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="18">
         <v>15.339999999999998</v>
       </c>
@@ -813,8 +814,8 @@
       <c r="D3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2">
-        <v>0.65</v>
+      <c r="E3" s="41">
+        <v>1.3</v>
       </c>
       <c r="F3" s="18">
         <v>17.12</v>
@@ -831,8 +832,8 @@
       <c r="D4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2">
-        <v>2.9</v>
+      <c r="E4" s="41">
+        <v>1.4</v>
       </c>
       <c r="F4" s="18">
         <v>21</v>
@@ -849,8 +850,8 @@
       <c r="D5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2">
-        <v>2.06</v>
+      <c r="E5" s="41">
+        <v>1.4</v>
       </c>
       <c r="F5" s="18">
         <v>23.41</v>
@@ -867,8 +868,8 @@
       <c r="D6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2">
-        <v>40.1</v>
+      <c r="E6" s="41">
+        <v>2.5</v>
       </c>
       <c r="F6" s="18">
         <v>22.4</v>
@@ -885,8 +886,8 @@
       <c r="D7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="2">
-        <v>24.6</v>
+      <c r="E7" s="41">
+        <v>15.4</v>
       </c>
       <c r="F7" s="18">
         <v>7.3699999999999992</v>
@@ -903,9 +904,7 @@
       <c r="D8" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="39">
-        <v>0.89</v>
-      </c>
+      <c r="E8" s="39"/>
       <c r="F8" s="40">
         <v>3.0100000000000007</v>
       </c>
@@ -921,9 +920,7 @@
       <c r="D9" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="39">
-        <v>0.53</v>
-      </c>
+      <c r="E9" s="39"/>
       <c r="F9" s="40">
         <v>3.6100000000000003</v>
       </c>
@@ -939,8 +936,8 @@
       <c r="D10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2">
-        <v>3.49</v>
+      <c r="E10" s="41">
+        <v>3.7</v>
       </c>
       <c r="F10" s="18">
         <v>15.540000000000003</v>
@@ -957,8 +954,8 @@
       <c r="D11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="2">
-        <v>29.5</v>
+      <c r="E11" s="41">
+        <v>3.01</v>
       </c>
       <c r="F11" s="18">
         <v>17.87</v>
@@ -975,8 +972,8 @@
       <c r="D12" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="39">
-        <v>0.45</v>
+      <c r="E12" s="41">
+        <v>8.6999999999999993</v>
       </c>
       <c r="F12" s="40">
         <v>8.48</v>
@@ -993,8 +990,8 @@
       <c r="D13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="2">
-        <v>19.600000000000001</v>
+      <c r="E13" s="41">
+        <v>7.6</v>
       </c>
       <c r="F13" s="18">
         <v>7.4300000000000006</v>
@@ -1011,8 +1008,8 @@
       <c r="D14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="2">
-        <v>20.100000000000001</v>
+      <c r="E14" s="41">
+        <v>6.1</v>
       </c>
       <c r="F14" s="18">
         <v>9.19</v>
@@ -1029,9 +1026,7 @@
       <c r="D15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="2">
-        <v>30.8</v>
-      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="18">
         <v>3.51</v>
       </c>
@@ -1047,8 +1042,8 @@
       <c r="D16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="2">
-        <v>4.9000000000000004</v>
+      <c r="E16" s="41">
+        <v>9.1999999999999993</v>
       </c>
       <c r="F16" s="18">
         <v>6.4999999999999991</v>
@@ -1065,9 +1060,7 @@
       <c r="D17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="2">
-        <v>25.4</v>
-      </c>
+      <c r="E17" s="2"/>
       <c r="F17">
         <v>4.7800000000000011</v>
       </c>

--- a/data/exp_raw/johann_batch_preprocessed_part2.xlsx
+++ b/data/exp_raw/johann_batch_preprocessed_part2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcantarella/Documents/AmmerBatch/data/exp_raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcant\Documents\AmmerBatch\data\exp_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C9B19F-62EE-6E4E-B33D-595419540CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329EE3A7-BE36-4362-8A0F-B52F4B8148F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9520" yWindow="1180" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,11 +179,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -476,8 +478,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -758,16 +760,16 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,7 +789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="19" t="s">
         <v>12</v>
       </c>
@@ -798,12 +800,14 @@
       <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <v>1.2</v>
+      </c>
       <c r="F2" s="18">
         <v>15.339999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
@@ -821,7 +825,7 @@
         <v>17.12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
@@ -839,7 +843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="19" t="s">
         <v>15</v>
       </c>
@@ -857,7 +861,7 @@
         <v>23.41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="19" t="s">
         <v>16</v>
       </c>
@@ -875,7 +879,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="19" t="s">
         <v>17</v>
       </c>
@@ -887,13 +891,13 @@
         <v>6</v>
       </c>
       <c r="E7" s="41">
-        <v>15.4</v>
+        <v>7.5</v>
       </c>
       <c r="F7" s="18">
         <v>7.3699999999999992</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="37" t="s">
         <v>18</v>
       </c>
@@ -904,12 +908,14 @@
       <c r="D8" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="39"/>
+      <c r="E8" s="39">
+        <v>43</v>
+      </c>
       <c r="F8" s="40">
         <v>3.0100000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="37" t="s">
         <v>19</v>
       </c>
@@ -925,7 +931,7 @@
         <v>3.6100000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75">
       <c r="A10" s="19" t="s">
         <v>20</v>
       </c>
@@ -943,7 +949,7 @@
         <v>15.540000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75">
       <c r="A11" s="19" t="s">
         <v>21</v>
       </c>
@@ -961,7 +967,7 @@
         <v>17.87</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75">
       <c r="A12" s="37" t="s">
         <v>22</v>
       </c>
@@ -979,7 +985,7 @@
         <v>8.48</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.75">
       <c r="A13" s="19" t="s">
         <v>23</v>
       </c>
@@ -997,7 +1003,7 @@
         <v>7.4300000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.75">
       <c r="A14" s="19" t="s">
         <v>24</v>
       </c>
@@ -1015,7 +1021,7 @@
         <v>9.19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15.75">
       <c r="A15" s="19" t="s">
         <v>25</v>
       </c>
@@ -1026,12 +1032,14 @@
       <c r="D15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>44</v>
+      </c>
       <c r="F15" s="18">
         <v>3.51</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.75">
       <c r="A16" s="19" t="s">
         <v>26</v>
       </c>
@@ -1049,7 +1057,7 @@
         <v>6.4999999999999991</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15.75">
       <c r="A17" s="19" t="s">
         <v>27</v>
       </c>
@@ -1060,12 +1068,14 @@
       <c r="D17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>20.05</v>
+      </c>
       <c r="F17">
         <v>4.7800000000000011</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.75">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -1073,7 +1083,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15.75">
       <c r="A19" s="4"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -1081,7 +1091,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="18"/>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="4"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -1089,7 +1099,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15.75">
       <c r="A21" s="4"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -1097,7 +1107,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15.75">
       <c r="A22" s="4"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -1105,7 +1115,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15.75">
       <c r="A23" s="4"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -1113,7 +1123,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15.75">
       <c r="A24" s="4"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -1121,7 +1131,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="18"/>
     </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15.75">
       <c r="A25" s="4"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -1142,14 +1152,14 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="15.75">
       <c r="A2" s="21">
         <v>0</v>
       </c>
@@ -1165,12 +1175,12 @@
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
     </row>
-    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="15.75">
       <c r="A3" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="15.75">
       <c r="A4" s="21">
         <v>9</v>
       </c>
@@ -1187,7 +1197,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="21"/>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="15.75">
       <c r="A5" s="21">
         <v>16</v>
       </c>
@@ -1204,7 +1214,7 @@
       <c r="W5" s="21"/>
       <c r="X5" s="21"/>
     </row>
-    <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="15.75">
       <c r="A6" s="21">
         <v>23</v>
       </c>
@@ -1221,7 +1231,7 @@
       <c r="W6" s="21"/>
       <c r="X6" s="21"/>
     </row>
-    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="15.75">
       <c r="A7" s="21">
         <v>30</v>
       </c>
@@ -1238,7 +1248,7 @@
       <c r="W7" s="21"/>
       <c r="X7" s="21"/>
     </row>
-    <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="15.75">
       <c r="A8" s="21">
         <v>56</v>
       </c>
@@ -1255,7 +1265,7 @@
       <c r="W8" s="21"/>
       <c r="X8" s="21"/>
     </row>
-    <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="15.75">
       <c r="A9" s="21">
         <v>72</v>
       </c>
@@ -1272,7 +1282,7 @@
       <c r="W9" s="21"/>
       <c r="X9" s="21"/>
     </row>
-    <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="15.75">
       <c r="A10" s="21">
         <v>83</v>
       </c>
@@ -1289,7 +1299,7 @@
       <c r="W10" s="21"/>
       <c r="X10" s="21"/>
     </row>
-    <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="15.75">
       <c r="A11" s="21">
         <v>99</v>
       </c>
@@ -1306,7 +1316,7 @@
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
     </row>
-    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="15.75">
       <c r="A12" s="21">
         <v>126</v>
       </c>
@@ -1323,7 +1333,7 @@
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
     </row>
-    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="15.75">
       <c r="A13" s="21">
         <v>150</v>
       </c>
@@ -1340,7 +1350,7 @@
       <c r="W13" s="21"/>
       <c r="X13" s="21"/>
     </row>
-    <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="15.75">
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
@@ -1354,7 +1364,7 @@
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
     </row>
-    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="15.75">
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
@@ -1381,9 +1391,9 @@
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
@@ -1437,7 +1447,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
@@ -1492,7 +1502,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75">
       <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
@@ -1547,7 +1557,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
@@ -1599,7 +1609,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="19" t="s">
         <v>16</v>
       </c>
@@ -1651,7 +1661,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
@@ -1706,7 +1716,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75">
       <c r="A7" s="19" t="s">
         <v>18</v>
       </c>
@@ -1761,7 +1771,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75">
       <c r="A8" s="19" t="s">
         <v>19</v>
       </c>
@@ -1816,7 +1826,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75">
       <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
@@ -1871,7 +1881,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.75">
       <c r="A10" s="19" t="s">
         <v>21</v>
       </c>
@@ -1926,7 +1936,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75">
       <c r="A11" s="19" t="s">
         <v>22</v>
       </c>
@@ -1981,7 +1991,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="19" t="s">
         <v>23</v>
       </c>
@@ -2036,7 +2046,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="19" t="s">
         <v>24</v>
       </c>
@@ -2091,7 +2101,7 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75">
       <c r="A14" s="19" t="s">
         <v>25</v>
       </c>
@@ -2146,7 +2156,7 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75">
       <c r="A15" s="19" t="s">
         <v>26</v>
       </c>
@@ -2201,7 +2211,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="19" t="s">
         <v>27</v>
       </c>
@@ -2255,7 +2265,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15.75">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -2272,7 +2282,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15.75">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -2289,7 +2299,7 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15.75">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -2306,7 +2316,7 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15.75">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -2323,7 +2333,7 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="15.75">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -2340,7 +2350,7 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="15.75">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
@@ -2357,7 +2367,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15.75">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
@@ -2374,7 +2384,7 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15.75">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
@@ -2404,9 +2414,9 @@
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16.5" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
@@ -2441,7 +2451,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
@@ -2476,7 +2486,7 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75">
       <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
@@ -2511,7 +2521,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
@@ -2546,7 +2556,7 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="19" t="s">
         <v>16</v>
       </c>
@@ -2581,7 +2591,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16.5" thickBot="1">
       <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
@@ -2616,7 +2626,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75">
       <c r="A7" s="19" t="s">
         <v>18</v>
       </c>
@@ -2651,7 +2661,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16.5" thickBot="1">
       <c r="A8" s="19" t="s">
         <v>19</v>
       </c>
@@ -2686,7 +2696,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75">
       <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
@@ -2721,7 +2731,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16.5" thickBot="1">
       <c r="A10" s="19" t="s">
         <v>21</v>
       </c>
@@ -2756,7 +2766,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75">
       <c r="A11" s="19" t="s">
         <v>22</v>
       </c>
@@ -2791,7 +2801,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="19" t="s">
         <v>23</v>
       </c>
@@ -2826,7 +2836,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16.5" thickBot="1">
       <c r="A13" s="19" t="s">
         <v>24</v>
       </c>
@@ -2861,7 +2871,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="16.5" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>25</v>
       </c>
@@ -2896,7 +2906,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75">
       <c r="A15" s="19" t="s">
         <v>26</v>
       </c>
@@ -2931,7 +2941,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="19" t="s">
         <v>27</v>
       </c>
@@ -2966,7 +2976,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15.75">
       <c r="A17" s="2"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2983,7 +2993,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15.75">
       <c r="A18" s="2"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3000,7 +3010,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15.75">
       <c r="A19" s="2"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -3017,7 +3027,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15.75">
       <c r="A20" s="2"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3034,7 +3044,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="15.75">
       <c r="A21" s="2"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3051,7 +3061,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="15.75">
       <c r="A22" s="2"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -3068,7 +3078,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15.75">
       <c r="A23" s="2"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3085,7 +3095,7 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15.75">
       <c r="A24" s="2"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -3115,9 +3125,9 @@
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
@@ -3172,7 +3182,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
@@ -3227,7 +3237,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75">
       <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
@@ -3282,7 +3292,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
@@ -3334,7 +3344,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="19" t="s">
         <v>16</v>
       </c>
@@ -3386,7 +3396,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
@@ -3441,7 +3451,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75">
       <c r="A7" s="19" t="s">
         <v>18</v>
       </c>
@@ -3496,7 +3506,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75">
       <c r="A8" s="19" t="s">
         <v>19</v>
       </c>
@@ -3551,7 +3561,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75">
       <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
@@ -3606,7 +3616,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.75">
       <c r="A10" s="19" t="s">
         <v>21</v>
       </c>
@@ -3661,7 +3671,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75">
       <c r="A11" s="19" t="s">
         <v>22</v>
       </c>
@@ -3716,7 +3726,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="19" t="s">
         <v>23</v>
       </c>
@@ -3771,7 +3781,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="19" t="s">
         <v>24</v>
       </c>
@@ -3826,7 +3836,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75">
       <c r="A14" s="19" t="s">
         <v>25</v>
       </c>
@@ -3881,7 +3891,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75">
       <c r="A15" s="19" t="s">
         <v>26</v>
       </c>
@@ -3936,7 +3946,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="19" t="s">
         <v>27</v>
       </c>
@@ -3991,7 +4001,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15.75">
       <c r="A17" s="2"/>
       <c r="B17" s="12"/>
       <c r="C17" s="14"/>
@@ -4008,7 +4018,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15.75">
       <c r="A18" s="2"/>
       <c r="B18" s="12"/>
       <c r="C18" s="14"/>
@@ -4025,7 +4035,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15.75">
       <c r="A19" s="2"/>
       <c r="B19" s="12"/>
       <c r="C19" s="14"/>
@@ -4042,7 +4052,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15.75">
       <c r="A20" s="2"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
@@ -4059,7 +4069,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="15.75">
       <c r="A21" s="2"/>
       <c r="B21" s="6"/>
       <c r="C21" s="14"/>
@@ -4076,7 +4086,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="15.75">
       <c r="A22" s="2"/>
       <c r="B22" s="12"/>
       <c r="C22" s="14"/>
@@ -4093,7 +4103,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15.75">
       <c r="A23" s="2"/>
       <c r="B23" s="6"/>
       <c r="C23" s="14"/>
@@ -4110,7 +4120,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15.75">
       <c r="A24" s="2"/>
       <c r="B24" s="6"/>
       <c r="C24" s="13"/>

--- a/data/exp_raw/johann_batch_preprocessed_part2.xlsx
+++ b/data/exp_raw/johann_batch_preprocessed_part2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcant\Documents\AmmerBatch\data\exp_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329EE3A7-BE36-4362-8A0F-B52F4B8148F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E88313-6564-4457-8261-25EFFCD12023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14910" yWindow="2085" windowWidth="8580" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -760,7 +760,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -909,10 +909,10 @@
         <v>28</v>
       </c>
       <c r="E8" s="39">
-        <v>43</v>
+        <v>43.5</v>
       </c>
       <c r="F8" s="40">
-        <v>3.0100000000000007</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75">
@@ -926,9 +926,11 @@
       <c r="D9" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="39">
+        <v>42.6</v>
+      </c>
       <c r="F9" s="40">
-        <v>3.6100000000000003</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75">
@@ -943,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="41">
-        <v>3.7</v>
+        <v>3.67</v>
       </c>
       <c r="F10" s="18">
         <v>15.540000000000003</v>
@@ -1036,7 +1038,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="18">
-        <v>3.51</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75">

--- a/data/exp_raw/johann_batch_preprocessed_part2.xlsx
+++ b/data/exp_raw/johann_batch_preprocessed_part2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcant\Documents\AmmerBatch\data\exp_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E88313-6564-4457-8261-25EFFCD12023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EA7ACB-5747-4A88-89DA-5C403D0E9B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14910" yWindow="2085" windowWidth="8580" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>T9</t>
+  </si>
+  <si>
+    <t>S_tot %</t>
   </si>
 </sst>
 </file>
@@ -757,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -769,7 +772,7 @@
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -788,8 +791,11 @@
       <c r="F1" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75">
+      <c r="G1" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="19" t="s">
         <v>12</v>
       </c>
@@ -807,7 +813,7 @@
         <v>15.339999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
@@ -825,7 +831,7 @@
         <v>17.12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
@@ -843,7 +849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="19" t="s">
         <v>15</v>
       </c>
@@ -861,7 +867,7 @@
         <v>23.41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="19" t="s">
         <v>16</v>
       </c>
@@ -879,7 +885,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="19" t="s">
         <v>17</v>
       </c>
@@ -897,7 +903,7 @@
         <v>7.3699999999999992</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="37" t="s">
         <v>18</v>
       </c>
@@ -908,14 +914,12 @@
       <c r="D8" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="39">
-        <v>43.5</v>
-      </c>
+      <c r="E8" s="39"/>
       <c r="F8" s="40">
         <v>3.42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="37" t="s">
         <v>19</v>
       </c>
@@ -933,7 +937,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="19" t="s">
         <v>20</v>
       </c>
@@ -951,7 +955,7 @@
         <v>15.540000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75">
+    <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="19" t="s">
         <v>21</v>
       </c>
@@ -969,7 +973,7 @@
         <v>17.87</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75">
+    <row r="12" spans="1:7" ht="15.75">
       <c r="A12" s="37" t="s">
         <v>22</v>
       </c>
@@ -987,7 +991,7 @@
         <v>8.48</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75">
+    <row r="13" spans="1:7" ht="15.75">
       <c r="A13" s="19" t="s">
         <v>23</v>
       </c>
@@ -1005,7 +1009,7 @@
         <v>7.4300000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75">
+    <row r="14" spans="1:7" ht="15.75">
       <c r="A14" s="19" t="s">
         <v>24</v>
       </c>
@@ -1023,7 +1027,7 @@
         <v>9.19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75">
+    <row r="15" spans="1:7" ht="15.75">
       <c r="A15" s="19" t="s">
         <v>25</v>
       </c>
@@ -1041,7 +1045,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75">
+    <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="19" t="s">
         <v>26</v>
       </c>
